--- a/opena3xx-mcdu/kicad/opena3xx-mcdu/gerber/BOM.xlsx
+++ b/opena3xx-mcdu/kicad/opena3xx-mcdu/gerber/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\opena3xx.schematics\opena3xx-mcdu\kicad\opena3xx-mcdu\gerber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B9C26-0CA8-4054-8B69-7DDC202B980F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A409BC2-2358-4F12-B484-5882DD82630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="525" windowWidth="18225" windowHeight="16455" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9855" yWindow="-15885" windowWidth="18225" windowHeight="16455" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="198">
   <si>
     <t>Comment</t>
   </si>
@@ -609,6 +609,51 @@
   </si>
   <si>
     <t>R47</t>
+  </si>
+  <si>
+    <t>C17957</t>
+  </si>
+  <si>
+    <t>C47023</t>
+  </si>
+  <si>
+    <t>C4502</t>
+  </si>
+  <si>
+    <t>C17948</t>
+  </si>
+  <si>
+    <t>C17902</t>
+  </si>
+  <si>
+    <t>C24497</t>
+  </si>
+  <si>
+    <t>C434439</t>
+  </si>
+  <si>
+    <t>C93094</t>
+  </si>
+  <si>
+    <t>C192674</t>
+  </si>
+  <si>
+    <t>C130718</t>
+  </si>
+  <si>
+    <t>C25830</t>
+  </si>
+  <si>
+    <t>C124383</t>
+  </si>
+  <si>
+    <t>C8404</t>
+  </si>
+  <si>
+    <t>C111609</t>
+  </si>
+  <si>
+    <t>C354965</t>
   </si>
 </sst>
 </file>
@@ -1089,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1127,6 +1172,9 @@
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="5" t="s">
@@ -1138,6 +1186,9 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="5" t="s">
@@ -1149,6 +1200,9 @@
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" ht="14.25">
       <c r="A5" s="5" t="s">
@@ -1160,6 +1214,9 @@
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="14.25">
@@ -1172,6 +1229,9 @@
       <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" ht="14.25">
@@ -1184,6 +1244,9 @@
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D7" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" ht="14.25">
@@ -1196,6 +1259,9 @@
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D8" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" ht="14.25">
       <c r="A9" s="5" t="s">
@@ -1207,6 +1273,9 @@
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D9" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="14.25">
       <c r="A10" s="5" t="s">
@@ -1218,6 +1287,9 @@
       <c r="C10" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="D10" s="5" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" ht="14.25">
       <c r="A11" s="5" t="s">
@@ -1229,6 +1301,9 @@
       <c r="C11" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="D11" s="5" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="14.25">
       <c r="A12" s="5" t="s">
@@ -1240,6 +1315,9 @@
       <c r="C12" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="D12" s="5" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" ht="14.25">
       <c r="A13" s="5" t="s">
@@ -1251,6 +1329,9 @@
       <c r="C13" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="D13" s="5" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="5" t="s">
@@ -1262,6 +1343,9 @@
       <c r="C14" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="D14" s="5" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="5" t="s">
@@ -1273,6 +1357,9 @@
       <c r="C15" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="D15" s="5" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="14.25">
       <c r="A16" s="5" t="s">
@@ -1284,8 +1371,11 @@
       <c r="C16" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25">
+      <c r="D16" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -1295,8 +1385,11 @@
       <c r="C17" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25">
+      <c r="D17" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -1306,8 +1399,11 @@
       <c r="C18" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25">
+      <c r="D18" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1317,8 +1413,11 @@
       <c r="C19" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25">
+      <c r="D19" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
@@ -1328,8 +1427,11 @@
       <c r="C20" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25">
+      <c r="D20" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -1339,8 +1441,11 @@
       <c r="C21" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25">
+      <c r="D21" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -1350,8 +1455,11 @@
       <c r="C22" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25">
+      <c r="D22" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
@@ -1361,8 +1469,11 @@
       <c r="C23" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25">
+      <c r="D23" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
@@ -1372,8 +1483,11 @@
       <c r="C24" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25">
+      <c r="D24" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.25">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -1383,8 +1497,11 @@
       <c r="C25" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25">
+      <c r="D25" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
@@ -1394,8 +1511,11 @@
       <c r="C26" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25">
+      <c r="D26" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1405,8 +1525,11 @@
       <c r="C27" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25">
+      <c r="D27" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -1416,8 +1539,11 @@
       <c r="C28" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25">
+      <c r="D28" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.25">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
@@ -1427,8 +1553,11 @@
       <c r="C29" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25">
+      <c r="D29" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.25">
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
@@ -1438,8 +1567,11 @@
       <c r="C30" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25">
+      <c r="D30" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.25">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
@@ -1449,8 +1581,11 @@
       <c r="C31" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25">
+      <c r="D31" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.25">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
@@ -1460,8 +1595,11 @@
       <c r="C32" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25">
+      <c r="D32" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.25">
       <c r="A33" s="5" t="s">
         <v>9</v>
       </c>
@@ -1471,8 +1609,11 @@
       <c r="C33" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.25">
+      <c r="D33" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.25">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
@@ -1482,8 +1623,11 @@
       <c r="C34" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.25">
+      <c r="D34" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -1493,8 +1637,11 @@
       <c r="C35" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.25">
+      <c r="D35" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.25">
       <c r="A36" s="5" t="s">
         <v>9</v>
       </c>
@@ -1504,8 +1651,11 @@
       <c r="C36" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.25">
+      <c r="D36" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.25">
       <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
@@ -1515,8 +1665,11 @@
       <c r="C37" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.25">
+      <c r="D37" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.25">
       <c r="A38" s="5" t="s">
         <v>9</v>
       </c>
@@ -1526,8 +1679,11 @@
       <c r="C38" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.25">
+      <c r="D38" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.25">
       <c r="A39" s="5" t="s">
         <v>9</v>
       </c>
@@ -1537,8 +1693,11 @@
       <c r="C39" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.25">
+      <c r="D39" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14.25">
       <c r="A40" s="5" t="s">
         <v>9</v>
       </c>
@@ -1548,8 +1707,11 @@
       <c r="C40" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25">
+      <c r="D40" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14.25">
       <c r="A41" s="5" t="s">
         <v>9</v>
       </c>
@@ -1559,8 +1721,11 @@
       <c r="C41" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25">
+      <c r="D41" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14.25">
       <c r="A42" s="5" t="s">
         <v>9</v>
       </c>
@@ -1570,8 +1735,11 @@
       <c r="C42" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.25">
+      <c r="D42" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -1581,8 +1749,11 @@
       <c r="C43" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25">
+      <c r="D43" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.25">
       <c r="A44" s="5" t="s">
         <v>9</v>
       </c>
@@ -1592,8 +1763,11 @@
       <c r="C44" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.25">
+      <c r="D44" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14.25">
       <c r="A45" s="5" t="s">
         <v>9</v>
       </c>
@@ -1603,8 +1777,11 @@
       <c r="C45" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.25">
+      <c r="D45" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14.25">
       <c r="A46" s="5" t="s">
         <v>9</v>
       </c>
@@ -1614,8 +1791,11 @@
       <c r="C46" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.25">
+      <c r="D46" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14.25">
       <c r="A47" s="5" t="s">
         <v>9</v>
       </c>
@@ -1625,8 +1805,11 @@
       <c r="C47" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25">
+      <c r="D47" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14.25">
       <c r="A48" s="5" t="s">
         <v>9</v>
       </c>
@@ -1636,8 +1819,11 @@
       <c r="C48" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.25">
+      <c r="D48" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.25">
       <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
@@ -1647,8 +1833,11 @@
       <c r="C49" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="14.25">
+      <c r="D49" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.25">
       <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
@@ -1658,8 +1847,11 @@
       <c r="C50" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.25">
+      <c r="D50" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -1669,8 +1861,11 @@
       <c r="C51" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.25">
+      <c r="D51" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.25">
       <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
@@ -1680,8 +1875,11 @@
       <c r="C52" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.25">
+      <c r="D52" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.25">
       <c r="A53" s="5" t="s">
         <v>9</v>
       </c>
@@ -1691,8 +1889,11 @@
       <c r="C53" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.25">
+      <c r="D53" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.25">
       <c r="A54" s="5" t="s">
         <v>9</v>
       </c>
@@ -1702,8 +1903,11 @@
       <c r="C54" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.25">
+      <c r="D54" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.25">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
@@ -1713,8 +1917,11 @@
       <c r="C55" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.25">
+      <c r="D55" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.25">
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
@@ -1724,8 +1931,11 @@
       <c r="C56" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.25">
+      <c r="D56" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="14.25">
       <c r="A57" s="5" t="s">
         <v>9</v>
       </c>
@@ -1735,8 +1945,11 @@
       <c r="C57" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="14.25">
+      <c r="D57" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.25">
       <c r="A58" s="5" t="s">
         <v>9</v>
       </c>
@@ -1746,8 +1959,11 @@
       <c r="C58" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="14.25">
+      <c r="D58" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="14.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -1757,8 +1973,11 @@
       <c r="C59" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="14.25">
+      <c r="D59" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.25">
       <c r="A60" s="5" t="s">
         <v>9</v>
       </c>
@@ -1768,8 +1987,11 @@
       <c r="C60" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="14.25">
+      <c r="D60" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.25">
       <c r="A61" s="5" t="s">
         <v>9</v>
       </c>
@@ -1779,8 +2001,11 @@
       <c r="C61" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.25">
+      <c r="D61" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.25">
       <c r="A62" s="5" t="s">
         <v>9</v>
       </c>
@@ -1790,8 +2015,11 @@
       <c r="C62" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.25">
+      <c r="D62" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.25">
       <c r="A63" s="5" t="s">
         <v>9</v>
       </c>
@@ -1801,8 +2029,11 @@
       <c r="C63" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="14.25">
+      <c r="D63" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.25">
       <c r="A64" s="5" t="s">
         <v>9</v>
       </c>
@@ -1812,8 +2043,11 @@
       <c r="C64" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="14.25">
+      <c r="D64" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14.25">
       <c r="A65" s="5" t="s">
         <v>9</v>
       </c>
@@ -1823,8 +2057,11 @@
       <c r="C65" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="14.25">
+      <c r="D65" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.25">
       <c r="A66" s="5" t="s">
         <v>9</v>
       </c>
@@ -1834,8 +2071,11 @@
       <c r="C66" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="14.25">
+      <c r="D66" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="14.25">
       <c r="A67" s="5" t="s">
         <v>9</v>
       </c>
@@ -1845,8 +2085,11 @@
       <c r="C67" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="14.25">
+      <c r="D67" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14.25">
       <c r="A68" s="5" t="s">
         <v>9</v>
       </c>
@@ -1856,8 +2099,11 @@
       <c r="C68" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="14.25">
+      <c r="D68" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.25">
       <c r="A69" s="5" t="s">
         <v>9</v>
       </c>
@@ -1867,8 +2113,11 @@
       <c r="C69" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="14.25">
+      <c r="D69" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14.25">
       <c r="A70" s="5" t="s">
         <v>9</v>
       </c>
@@ -1878,8 +2127,11 @@
       <c r="C70" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.25">
+      <c r="D70" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="14.25">
       <c r="A71" s="5" t="s">
         <v>9</v>
       </c>
@@ -1889,8 +2141,11 @@
       <c r="C71" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.25">
+      <c r="D71" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="14.25">
       <c r="A72" s="5" t="s">
         <v>9</v>
       </c>
@@ -1900,8 +2155,11 @@
       <c r="C72" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="14.25">
+      <c r="D72" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="14.25">
       <c r="A73" s="5" t="s">
         <v>9</v>
       </c>
@@ -1911,8 +2169,11 @@
       <c r="C73" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="14.25">
+      <c r="D73" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.25">
       <c r="A74" s="5" t="s">
         <v>9</v>
       </c>
@@ -1922,8 +2183,11 @@
       <c r="C74" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="14.25">
+      <c r="D74" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -1933,8 +2197,11 @@
       <c r="C75" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="14.25">
+      <c r="D75" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14.25">
       <c r="A76" s="5" t="s">
         <v>9</v>
       </c>
@@ -1944,8 +2211,11 @@
       <c r="C76" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="14.25">
+      <c r="D76" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="14.25">
       <c r="A77" s="5" t="s">
         <v>9</v>
       </c>
@@ -1955,8 +2225,11 @@
       <c r="C77" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="14.25">
+      <c r="D77" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="14.25">
       <c r="A78" s="5" t="s">
         <v>9</v>
       </c>
@@ -1966,8 +2239,11 @@
       <c r="C78" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="14.25">
+      <c r="D78" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="14.25">
       <c r="A79" s="5" t="s">
         <v>9</v>
       </c>
@@ -1977,8 +2253,11 @@
       <c r="C79" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="14.25">
+      <c r="D79" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="14.25">
       <c r="A80" s="5" t="s">
         <v>9</v>
       </c>
@@ -1988,8 +2267,11 @@
       <c r="C80" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="14.25">
+      <c r="D80" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="14.25">
       <c r="A81" s="5" t="s">
         <v>9</v>
       </c>
@@ -1999,8 +2281,11 @@
       <c r="C81" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="14.25">
+      <c r="D81" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="14.25">
       <c r="A82" s="5" t="s">
         <v>9</v>
       </c>
@@ -2010,8 +2295,11 @@
       <c r="C82" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="14.25">
+      <c r="D82" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="14.25">
       <c r="A83" s="5" t="s">
         <v>9</v>
       </c>
@@ -2021,8 +2309,11 @@
       <c r="C83" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="14.25">
+      <c r="D83" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="14.25">
       <c r="A84" s="5" t="s">
         <v>93</v>
       </c>
@@ -2032,8 +2323,11 @@
       <c r="C84" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="14.25">
+      <c r="D84" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="14.25">
       <c r="A85" s="5" t="s">
         <v>93</v>
       </c>
@@ -2043,8 +2337,11 @@
       <c r="C85" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="14.25">
+      <c r="D85" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="14.25">
       <c r="A86" s="5" t="s">
         <v>93</v>
       </c>
@@ -2054,8 +2351,11 @@
       <c r="C86" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="14.25">
+      <c r="D86" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="14.25">
       <c r="A87" s="5" t="s">
         <v>93</v>
       </c>
@@ -2065,8 +2365,11 @@
       <c r="C87" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="14.25">
+      <c r="D87" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="14.25">
       <c r="A88" s="5" t="s">
         <v>93</v>
       </c>
@@ -2076,8 +2379,11 @@
       <c r="C88" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="14.25">
+      <c r="D88" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="14.25">
       <c r="A89" s="5" t="s">
         <v>93</v>
       </c>
@@ -2087,8 +2393,11 @@
       <c r="C89" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="14.25">
+      <c r="D89" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="14.25">
       <c r="A90" s="5" t="s">
         <v>93</v>
       </c>
@@ -2098,8 +2407,11 @@
       <c r="C90" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="14.25">
+      <c r="D90" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="14.25">
       <c r="A91" s="5" t="s">
         <v>93</v>
       </c>
@@ -2109,8 +2421,11 @@
       <c r="C91" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="14.25">
+      <c r="D91" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="14.25">
       <c r="A92" s="5" t="s">
         <v>93</v>
       </c>
@@ -2120,8 +2435,11 @@
       <c r="C92" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="14.25">
+      <c r="D92" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="14.25">
       <c r="A93" s="5" t="s">
         <v>93</v>
       </c>
@@ -2131,8 +2449,11 @@
       <c r="C93" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="14.25">
+      <c r="D93" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="14.25">
       <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
@@ -2142,8 +2463,11 @@
       <c r="C94" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="14.25">
+      <c r="D94" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="14.25">
       <c r="A95" s="5" t="s">
         <v>93</v>
       </c>
@@ -2153,8 +2477,11 @@
       <c r="C95" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="14.25">
+      <c r="D95" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="14.25">
       <c r="A96" s="5" t="s">
         <v>93</v>
       </c>
@@ -2164,8 +2491,11 @@
       <c r="C96" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="14.25">
+      <c r="D96" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="14.25">
       <c r="A97" s="5" t="s">
         <v>93</v>
       </c>
@@ -2175,8 +2505,11 @@
       <c r="C97" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="14.25">
+      <c r="D97" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="14.25">
       <c r="A98" s="5" t="s">
         <v>93</v>
       </c>
@@ -2186,8 +2519,11 @@
       <c r="C98" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="14.25">
+      <c r="D98" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="14.25">
       <c r="A99" s="5" t="s">
         <v>93</v>
       </c>
@@ -2197,8 +2533,11 @@
       <c r="C99" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="14.25">
+      <c r="D99" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="14.25">
       <c r="A100" s="5" t="s">
         <v>93</v>
       </c>
@@ -2208,8 +2547,11 @@
       <c r="C100" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="14.25">
+      <c r="D100" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="14.25">
       <c r="A101" s="5" t="s">
         <v>93</v>
       </c>
@@ -2219,8 +2561,11 @@
       <c r="C101" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="14.25">
+      <c r="D101" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="14.25">
       <c r="A102" s="5" t="s">
         <v>93</v>
       </c>
@@ -2230,8 +2575,11 @@
       <c r="C102" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="14.25">
+      <c r="D102" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="14.25">
       <c r="A103" s="5" t="s">
         <v>93</v>
       </c>
@@ -2241,8 +2589,11 @@
       <c r="C103" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="14.25">
+      <c r="D103" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="14.25">
       <c r="A104" s="5" t="s">
         <v>93</v>
       </c>
@@ -2252,8 +2603,11 @@
       <c r="C104" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="14.25">
+      <c r="D104" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="14.25">
       <c r="A105" s="5" t="s">
         <v>93</v>
       </c>
@@ -2263,8 +2617,11 @@
       <c r="C105" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="14.25">
+      <c r="D105" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="14.25">
       <c r="A106" s="5" t="s">
         <v>93</v>
       </c>
@@ -2274,8 +2631,11 @@
       <c r="C106" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="14.25">
+      <c r="D106" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="14.25">
       <c r="A107" s="5" t="s">
         <v>93</v>
       </c>
@@ -2285,8 +2645,11 @@
       <c r="C107" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="14.25">
+      <c r="D107" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="14.25">
       <c r="A108" s="5" t="s">
         <v>118</v>
       </c>
@@ -2296,8 +2659,11 @@
       <c r="C108" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="14.25">
+      <c r="D108" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="14.25">
       <c r="A109" s="5" t="s">
         <v>118</v>
       </c>
@@ -2307,8 +2673,11 @@
       <c r="C109" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="14.25">
+      <c r="D109" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="14.25">
       <c r="A110" s="5" t="s">
         <v>118</v>
       </c>
@@ -2318,8 +2687,11 @@
       <c r="C110" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="14.25">
+      <c r="D110" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="14.25">
       <c r="A111" s="5" t="s">
         <v>118</v>
       </c>
@@ -2329,8 +2701,11 @@
       <c r="C111" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="14.25">
+      <c r="D111" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="14.25">
       <c r="A112" s="5" t="s">
         <v>118</v>
       </c>
@@ -2340,8 +2715,11 @@
       <c r="C112" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="14.25">
+      <c r="D112" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="14.25">
       <c r="A113" s="5" t="s">
         <v>127</v>
       </c>
@@ -2351,8 +2729,11 @@
       <c r="C113" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="14.25">
+      <c r="D113" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="14.25">
       <c r="A114" s="5" t="s">
         <v>128</v>
       </c>
@@ -2362,8 +2743,11 @@
       <c r="C114" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="14.25">
+      <c r="D114" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="14.25">
       <c r="A115" s="5" t="s">
         <v>128</v>
       </c>
@@ -2373,8 +2757,11 @@
       <c r="C115" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="14.25">
+      <c r="D115" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="14.25">
       <c r="A116" s="5" t="s">
         <v>128</v>
       </c>
@@ -2384,8 +2771,11 @@
       <c r="C116" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="14.25">
+      <c r="D116" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="14.25">
       <c r="A117" s="5" t="s">
         <v>128</v>
       </c>
@@ -2395,8 +2785,11 @@
       <c r="C117" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="14.25">
+      <c r="D117" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="14.25">
       <c r="A118" s="5" t="s">
         <v>128</v>
       </c>
@@ -2406,8 +2799,11 @@
       <c r="C118" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="14.25">
+      <c r="D118" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="14.25">
       <c r="A119" s="5" t="s">
         <v>128</v>
       </c>
@@ -2417,8 +2813,11 @@
       <c r="C119" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="14.25">
+      <c r="D119" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="14.25">
       <c r="A120" s="5" t="s">
         <v>128</v>
       </c>
@@ -2428,8 +2827,11 @@
       <c r="C120" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="14.25">
+      <c r="D120" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="14.25">
       <c r="A121" s="5" t="s">
         <v>128</v>
       </c>
@@ -2439,8 +2841,11 @@
       <c r="C121" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="14.25">
+      <c r="D121" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="14.25">
       <c r="A122" s="5" t="s">
         <v>128</v>
       </c>
@@ -2450,8 +2855,11 @@
       <c r="C122" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="14.25">
+      <c r="D122" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="14.25">
       <c r="A123" s="5" t="s">
         <v>128</v>
       </c>
@@ -2461,8 +2869,11 @@
       <c r="C123" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="14.25">
+      <c r="D123" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="14.25">
       <c r="A124" s="5" t="s">
         <v>128</v>
       </c>
@@ -2472,8 +2883,11 @@
       <c r="C124" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="14.25">
+      <c r="D124" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="14.25">
       <c r="A125" s="5" t="s">
         <v>128</v>
       </c>
@@ -2483,8 +2897,11 @@
       <c r="C125" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="14.25">
+      <c r="D125" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="14.25">
       <c r="A126" s="5" t="s">
         <v>131</v>
       </c>
@@ -2494,8 +2911,11 @@
       <c r="C126" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="14.25">
+      <c r="D126" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="14.25">
       <c r="A127" s="5" t="s">
         <v>131</v>
       </c>
@@ -2505,8 +2925,11 @@
       <c r="C127" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="14.25">
+      <c r="D127" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="14.25">
       <c r="A128" s="5" t="s">
         <v>131</v>
       </c>
@@ -2516,8 +2939,11 @@
       <c r="C128" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="14.25">
+      <c r="D128" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="14.25">
       <c r="A129" s="5" t="s">
         <v>149</v>
       </c>
@@ -2527,8 +2953,11 @@
       <c r="C129" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="14.25">
+      <c r="D129" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="14.25">
       <c r="A130" s="5" t="s">
         <v>149</v>
       </c>
@@ -2538,8 +2967,11 @@
       <c r="C130" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="14.25">
+      <c r="D130" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="14.25">
       <c r="A131" s="5" t="s">
         <v>149</v>
       </c>
@@ -2549,8 +2981,11 @@
       <c r="C131" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="14.25">
+      <c r="D131" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="14.25">
       <c r="A132" s="5" t="s">
         <v>149</v>
       </c>
@@ -2560,8 +2995,11 @@
       <c r="C132" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="14.25">
+      <c r="D132" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="14.25">
       <c r="A133" s="5" t="s">
         <v>149</v>
       </c>
@@ -2571,8 +3009,11 @@
       <c r="C133" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="14.25">
+      <c r="D133" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="14.25">
       <c r="A134" s="4" t="s">
         <v>150</v>
       </c>
@@ -2582,8 +3023,11 @@
       <c r="C134" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="14.25">
+      <c r="D134" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="14.25">
       <c r="A135" s="4" t="s">
         <v>153</v>
       </c>
@@ -2593,8 +3037,11 @@
       <c r="C135" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="14.25">
+      <c r="D135" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="14.25">
       <c r="A136" s="4" t="s">
         <v>153</v>
       </c>
@@ -2604,8 +3051,11 @@
       <c r="C136" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="14.25">
+      <c r="D136" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="14.25">
       <c r="A137" s="4" t="s">
         <v>156</v>
       </c>
@@ -2615,8 +3065,11 @@
       <c r="C137" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="14.25">
+      <c r="D137" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="14.25">
       <c r="A138" s="4" t="s">
         <v>158</v>
       </c>
@@ -2626,8 +3079,11 @@
       <c r="C138" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="14.25">
+      <c r="D138" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="14.25">
       <c r="A139" s="4" t="s">
         <v>156</v>
       </c>
@@ -2637,8 +3093,11 @@
       <c r="C139" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="14.25">
+      <c r="D139" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="14.25">
       <c r="A140" s="4" t="s">
         <v>156</v>
       </c>
@@ -2648,8 +3107,11 @@
       <c r="C140" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="14.25">
+      <c r="D140" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="14.25">
       <c r="A141" s="4" t="s">
         <v>156</v>
       </c>
@@ -2659,8 +3121,11 @@
       <c r="C141" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="14.25">
+      <c r="D141" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="14.25">
       <c r="A142" s="4" t="s">
         <v>160</v>
       </c>
@@ -2670,8 +3135,11 @@
       <c r="C142" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="14.25">
+      <c r="D142" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="14.25">
       <c r="A143" s="4" t="s">
         <v>168</v>
       </c>
@@ -2681,8 +3149,11 @@
       <c r="C143" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="14.25">
+      <c r="D143" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="14.25">
       <c r="A144" s="4" t="s">
         <v>169</v>
       </c>
@@ -2692,8 +3163,11 @@
       <c r="C144" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="14.25">
+      <c r="D144" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="14.25">
       <c r="A145" s="4" t="s">
         <v>158</v>
       </c>
@@ -2703,8 +3177,11 @@
       <c r="C145" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="14.25">
+      <c r="D145" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="14.25">
       <c r="A146" s="4" t="s">
         <v>170</v>
       </c>
@@ -2714,8 +3191,11 @@
       <c r="C146" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="14.25">
+      <c r="D146" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="14.25">
       <c r="A147" s="4" t="s">
         <v>170</v>
       </c>
@@ -2725,8 +3205,11 @@
       <c r="C147" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="14.25">
+      <c r="D147" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="14.25">
       <c r="A148" s="4" t="s">
         <v>170</v>
       </c>
@@ -2736,8 +3219,11 @@
       <c r="C148" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="14.25">
+      <c r="D148" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="14.25">
       <c r="A149" s="4" t="s">
         <v>170</v>
       </c>
@@ -2747,8 +3233,11 @@
       <c r="C149" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="14.25">
+      <c r="D149" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="14.25">
       <c r="A150" s="4" t="s">
         <v>170</v>
       </c>
@@ -2758,8 +3247,11 @@
       <c r="C150" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="14.25">
+      <c r="D150" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="14.25">
       <c r="A151" s="5" t="s">
         <v>178</v>
       </c>
@@ -2769,8 +3261,11 @@
       <c r="C151" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="14.25">
+      <c r="D151" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="14.25">
       <c r="A152" s="5" t="s">
         <v>180</v>
       </c>
@@ -2780,8 +3275,11 @@
       <c r="C152" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="14.25">
+      <c r="D152" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="14.25">
       <c r="A153" s="5" t="s">
         <v>93</v>
       </c>
@@ -2790,6 +3288,9 @@
       </c>
       <c r="C153" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
